--- a/biology/Histoire de la zoologie et de la botanique/Georges_Mniszech/Georges_Mniszech.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_Mniszech/Georges_Mniszech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Philippe Comte Vandalin Mniszech, né le 14 mars 1822 à Wischnowitz (Russie) et mort le 17 novembre 1881 dans le 8e arrondissement de Paris est un entomologiste polonais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jerzy Vandalin Mniszech est né au Palais Wiśniowiecki en Volhynie dans une famille noble, il est le fils de Charles Vadalin Mniszech (1794–1844) et de Eleonore Zentner (1798–1871).
 Son grand-oncle Joseph Jean (1742-1797) fut un naturaliste.
@@ -521,7 +535,7 @@
 En 1874, Mniszech fait bâtir un hôtel particulier, c'est l'architecte Eugène Monnier qui érige la bâtisse, rue Balzac.
 Il passe les derniers mois de sa vie dans un établissement spécialisé, victime d’un ramollissement cérébral, consécutif à une première hémorragie cérébrale survenue en 1875.
 Vers 1880, la collection de Mniszech fut vendue à Deyrolle bien en dessous de sa valeur, soit 60 000 francs.
-Georges Mniszech est mort chez lui[1], le 17 novembre 1881, à l'âge de 59 ans[2].
+Georges Mniszech est mort chez lui, le 17 novembre 1881, à l'âge de 59 ans.
 Henri Deyrolle présente l'éloge funèbre devant la Société entomologique de France.
 </t>
         </is>
